--- a/codes/C.value_finder_monthly/value_finder_mom.xlsx
+++ b/codes/C.value_finder_monthly/value_finder_mom.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K82"/>
+  <dimension ref="A1:K83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,28 +492,28 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.02047508433629237</v>
+        <v>0.004744149264016113</v>
       </c>
       <c r="B2" t="n">
-        <v>0.04273067299231104</v>
+        <v>0.05604499746019626</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04376022531243166</v>
+        <v>0.111669895607809</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2848497025039942</v>
+        <v>0.2046170298329457</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02055190757786461</v>
+        <v>0.00935482775035904</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0308654035364188</v>
+        <v>0.04959984144479074</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1409456522751242</v>
+        <v>0.1666408470130128</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3501445324640077</v>
+        <v>0.2911097256201176</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -531,28 +531,28 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.01370878790927621</v>
+        <v>-0.003335156527691762</v>
       </c>
       <c r="B3" t="n">
-        <v>0.09462694644138729</v>
+        <v>0.02778667418196291</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08124941874610968</v>
+        <v>0.09408380683809602</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2163704145855243</v>
+        <v>0.1650581808448139</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01252190138255039</v>
+        <v>-0.004696131438210822</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08872318109358025</v>
+        <v>0.02921416140840821</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09469811834384421</v>
+        <v>0.1020669191401049</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2136309944609242</v>
+        <v>0.1651849181173166</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -565,33 +565,33 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.02497638962349128</v>
+        <v>0.01317813124644094</v>
       </c>
       <c r="B4" t="n">
-        <v>0.05245143479021265</v>
+        <v>0.0572349690759609</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04143215501859292</v>
+        <v>0.105803236888513</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2936393727421531</v>
+        <v>0.2520959004890585</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02076937438736184</v>
+        <v>0.0118219170785891</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03484055567396242</v>
+        <v>0.05441587829014793</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1406010823890333</v>
+        <v>0.1637848830999437</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3510200398753047</v>
+        <v>0.2953196958142066</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -604,33 +604,33 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.01856775606961082</v>
+        <v>0.002047232943059448</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1040397624595438</v>
+        <v>0.0352172340963914</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07906922100816419</v>
+        <v>0.09749700110928407</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2148695288388336</v>
+        <v>0.188399967986849</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01549431889450645</v>
+        <v>-0.003348245553457377</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09570399152042751</v>
+        <v>0.03371583358752146</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09509851632411241</v>
+        <v>0.1048785234657973</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2164255080886978</v>
+        <v>0.1717448512509946</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -643,33 +643,33 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.0267586092091981</v>
+        <v>0.01405645433067888</v>
       </c>
       <c r="B6" t="n">
-        <v>0.06514485073104571</v>
+        <v>0.06079223673616013</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03635789463162376</v>
+        <v>0.09871971244686199</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2954885722376988</v>
+        <v>0.2798652930199641</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02378502187158667</v>
+        <v>0.01258756738268497</v>
       </c>
       <c r="F6" t="n">
-        <v>0.07976462884805685</v>
+        <v>0.07804030646188422</v>
       </c>
       <c r="G6" t="n">
-        <v>0.07226610326653024</v>
+        <v>0.127716781679677</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3114619952074151</v>
+        <v>0.2992588940895476</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -687,28 +687,28 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.02257727690274035</v>
+        <v>0.009566294830799009</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1169360070269576</v>
+        <v>0.04657174292693066</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08477042640309815</v>
+        <v>0.1089079161579242</v>
       </c>
       <c r="D7" t="n">
-        <v>0.208802236415006</v>
+        <v>0.1820368911979522</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02510710589771136</v>
+        <v>0.006071876210604125</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1289671622025282</v>
+        <v>0.05225523604428874</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1046763851702412</v>
+        <v>0.1239594068079822</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2166988845924593</v>
+        <v>0.1787098189028499</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -721,33 +721,33 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.01695028051454181</v>
+        <v>0.02169843171438669</v>
       </c>
       <c r="B8" t="n">
-        <v>0.07120373202735059</v>
+        <v>0.01220923233413001</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03717525307611628</v>
+        <v>0.09829402377163471</v>
       </c>
       <c r="D8" t="n">
-        <v>0.204791637362845</v>
+        <v>0.2328787667274629</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02447935925604041</v>
+        <v>0.0142348635646308</v>
       </c>
       <c r="F8" t="n">
-        <v>0.09372786591218582</v>
+        <v>0.05276986246357235</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09545316812020223</v>
+        <v>0.1420338735027173</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2954483864227503</v>
+        <v>0.3058609593819163</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -760,33 +760,33 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>621</v>
+        <v>607</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.01255623452736868</v>
+        <v>0.01663495051159987</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1099480898604651</v>
+        <v>-0.005126933955091929</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0614810117099792</v>
+        <v>0.1023368982797842</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1981239700180917</v>
+        <v>0.1834559628209492</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01551582347215383</v>
+        <v>0.01344485146878563</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1219363336288313</v>
+        <v>0.02239380907460908</v>
       </c>
       <c r="G9" t="n">
-        <v>0.08765956487924456</v>
+        <v>0.1223973327029859</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2352608062863651</v>
+        <v>0.2111373597484061</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -799,33 +799,33 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>837</v>
+        <v>825</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.02583657289352626</v>
+        <v>0.004158339659192784</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.0332537666430643</v>
+        <v>-0.05065325399244663</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0244089986798379</v>
+        <v>-0.01275605501690773</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3086433940691705</v>
+        <v>0.2777338722424391</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.72349601298011e-05</v>
+        <v>3.625899837951585e-05</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0007267457379879911</v>
+        <v>0.0001688957931817623</v>
       </c>
       <c r="G10" t="n">
-        <v>0.003151603735736337</v>
+        <v>0.002255346757730931</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0003908730397148026</v>
+        <v>0.0006362788593395781</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -843,28 +843,28 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.01569422050274987</v>
+        <v>0.06530760044774174</v>
       </c>
       <c r="B11" t="n">
-        <v>0.05392887849694867</v>
+        <v>0.04128585566397368</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.001989673933295771</v>
+        <v>0.1122547870767437</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3121268836841254</v>
+        <v>0.282039288009126</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0002971508359615521</v>
+        <v>4.301915632452164e-05</v>
       </c>
       <c r="F11" t="n">
-        <v>1.305869318340412e-05</v>
+        <v>0.0003562320866461154</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0004709624092986326</v>
+        <v>0.0008547596068114517</v>
       </c>
       <c r="H11" t="n">
-        <v>0.003261635372151931</v>
+        <v>0.001889027977142352</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -877,33 +877,33 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.005709573087973659</v>
+        <v>-0.01053857533853633</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.06953140472388392</v>
+        <v>-0.09680104670520137</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.0504502492108669</v>
+        <v>-0.07252646026392799</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2218176947740884</v>
+        <v>0.2858183613526207</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0002396072533044647</v>
+        <v>0.0001919837711121829</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.0001614998028927474</v>
+        <v>0.0004804198139337423</v>
       </c>
       <c r="G12" t="n">
-        <v>0.002308849207235823</v>
+        <v>0.002925205628225627</v>
       </c>
       <c r="H12" t="n">
-        <v>0.007909761898894353</v>
+        <v>0.007373320745132413</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -921,28 +921,28 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.02045696701016476</v>
+        <v>0.002028155194808513</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.1019656148174488</v>
+        <v>-0.0700287830213111</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.1818237249986812</v>
+        <v>-0.0890190432159286</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3214896976171983</v>
+        <v>0.279198492964969</v>
       </c>
       <c r="E13" t="n">
-        <v>0.000535360657660306</v>
+        <v>0.0001804729099136583</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0002383414486797791</v>
+        <v>-7.208854348308097e-05</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0004393630498763994</v>
+        <v>-2.147415209781461e-06</v>
       </c>
       <c r="H13" t="n">
-        <v>0.004134969486667453</v>
+        <v>0.003450853910659949</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -955,33 +955,33 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.01509114944448279</v>
+        <v>0.08528004812615342</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.01540284729813803</v>
+        <v>0.003600765472084244</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.0763636416929213</v>
+        <v>0.008723641393683645</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2908377559102129</v>
+        <v>0.3191508857110614</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0003748421375878853</v>
+        <v>8.327824868862861e-05</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.0001028386875621619</v>
+        <v>0.0007700672892972629</v>
       </c>
       <c r="G14" t="n">
-        <v>0.001170870334049816</v>
+        <v>0.001149028195207675</v>
       </c>
       <c r="H14" t="n">
-        <v>0.003351645033156294</v>
+        <v>0.003705899232668326</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -994,33 +994,33 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.0429315754026689</v>
+        <v>0.04449198827699562</v>
       </c>
       <c r="B15" t="n">
-        <v>0.03438468157816107</v>
+        <v>-0.005643322876819634</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.06738910565088853</v>
+        <v>0.03455481666259666</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3240954281720059</v>
+        <v>0.4475090925819079</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.0004213390068803585</v>
+        <v>-0.0003123857433200686</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0002856403751091682</v>
+        <v>0.0001203154068600695</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0005729290469150826</v>
+        <v>0.0006998916783878238</v>
       </c>
       <c r="H15" t="n">
-        <v>0.002439012640035649</v>
+        <v>0.001507180458212903</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1033,33 +1033,33 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.01103400772231134</v>
+        <v>-0.02824377405541929</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1625921645112907</v>
+        <v>-0.1989487350904292</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1622502645009414</v>
+        <v>-0.2013994641347452</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1713063891009053</v>
+        <v>-0.1353048827042069</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.0003753248403015102</v>
+        <v>0.0004534968158848383</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0006839290696761968</v>
+        <v>0.000737152846694748</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0007543367496037002</v>
+        <v>0.003346319676013195</v>
       </c>
       <c r="H16" t="n">
-        <v>0.003767027307891614</v>
+        <v>-0.001059910276854345</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1068,37 +1068,37 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Banks</t>
+          <t>Automobiles</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>304</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.08970420381240424</v>
+        <v>0.06728446043676563</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.0689136231819041</v>
+        <v>0.02328713968560353</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.2306809282471372</v>
+        <v>0.2233539184798525</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.1197378918067771</v>
+        <v>0.1190334550874659</v>
       </c>
       <c r="E17" t="n">
-        <v>0.001681341267366876</v>
+        <v>0.0008738370808582951</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002544545814399778</v>
+        <v>0.0004048946879965838</v>
       </c>
       <c r="G17" t="n">
-        <v>0.003878742463643522</v>
+        <v>0.001589439991398895</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.002127623560764171</v>
+        <v>0.003263933723185718</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1107,37 +1107,37 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Automobiles</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>13</v>
+        <v>305</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.03237951044435165</v>
+        <v>-0.006296257120947436</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1104590302613822</v>
+        <v>-0.03004068981730395</v>
       </c>
       <c r="C18" t="n">
-        <v>0.07061765613439065</v>
+        <v>0.1286135621933495</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1392654061612207</v>
+        <v>0.2324827804990292</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.0002392125893416288</v>
+        <v>-0.0004790025911221205</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0009289219776661173</v>
+        <v>-0.000582584265776383</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0008244152419140151</v>
+        <v>0.0006350063204208118</v>
       </c>
       <c r="H18" t="n">
-        <v>0.001256037852494172</v>
+        <v>0.000456119474291924</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1155,28 +1155,28 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.01600420547064207</v>
+        <v>-0.01688199315146703</v>
       </c>
       <c r="B19" t="n">
-        <v>0.01371666457847004</v>
+        <v>0.0432370376855667</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.02965515815539121</v>
+        <v>0.0451037997273758</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.006442725701750703</v>
+        <v>-0.006406026275080655</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.0002754448297923307</v>
+        <v>-0.0003543869697483095</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.0002359836210839977</v>
+        <v>-0.0002217992271108381</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.0003033607516645558</v>
+        <v>9.109856784333787e-06</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0007393335739646366</v>
+        <v>0.0007382408902408457</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1189,33 +1189,33 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.008573915738949132</v>
+        <v>0.03915642396625465</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1214458678150618</v>
+        <v>0.05289897743892497</v>
       </c>
       <c r="C20" t="n">
-        <v>0.07374440008587616</v>
+        <v>0.1802205232139091</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2431932122480934</v>
+        <v>0.2503658847376019</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0001541910261121618</v>
+        <v>0.0004066823767256695</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001122672175263912</v>
+        <v>0.001098166255964109</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0003332355279893313</v>
+        <v>0.001438429663164073</v>
       </c>
       <c r="H20" t="n">
-        <v>0.002670362392728684</v>
+        <v>0.001922762653911515</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1233,28 +1233,28 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.01150016461453462</v>
+        <v>-0.01149123641572009</v>
       </c>
       <c r="B21" t="n">
-        <v>0.07071970201556341</v>
+        <v>0.007442604907400507</v>
       </c>
       <c r="C21" t="n">
-        <v>0.03249479159074398</v>
+        <v>-0.00520367136634479</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1598281238059169</v>
+        <v>0.1358995172711646</v>
       </c>
       <c r="E21" t="n">
-        <v>5.522244757592138e-05</v>
+        <v>-0.0002871872064120159</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0006370853972151444</v>
+        <v>0.0002347690173522598</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0009453778824173842</v>
+        <v>0.0001250800050761104</v>
       </c>
       <c r="H21" t="n">
-        <v>0.00149633123355282</v>
+        <v>0.001167682141786795</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1272,28 +1272,28 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.03262870857602652</v>
+        <v>-0.02644811667560035</v>
       </c>
       <c r="B22" t="n">
-        <v>0.06717066687062385</v>
+        <v>-0.05831237718765527</v>
       </c>
       <c r="C22" t="n">
-        <v>0.04075113807033422</v>
+        <v>0.02184676468451645</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2084960239669858</v>
+        <v>0.1123183928189933</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0001336460101545556</v>
+        <v>-0.0002501868684429492</v>
       </c>
       <c r="F22" t="n">
-        <v>0.00085809982833611</v>
+        <v>0.0004111027105579988</v>
       </c>
       <c r="G22" t="n">
-        <v>0.001824150453110126</v>
+        <v>0.001358162441336903</v>
       </c>
       <c r="H22" t="n">
-        <v>0.002700418142736734</v>
+        <v>0.002393199335233944</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1302,37 +1302,37 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Consumer Staples Distribution &amp; Retail</t>
+          <t>Specialty Retail</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>27</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.06171170808183961</v>
+        <v>0.00275596206692847</v>
       </c>
       <c r="B23" t="n">
-        <v>0.05497029132456057</v>
+        <v>-0.02936151444932285</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.01218905733429588</v>
+        <v>0.07350736379177361</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1506704523774755</v>
+        <v>0.09762468146570195</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0005454272707844381</v>
+        <v>8.29256082538496e-05</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001281060343702025</v>
+        <v>0.0008631931356824371</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0007635142956577048</v>
+        <v>0.001956694724261938</v>
       </c>
       <c r="H23" t="n">
-        <v>0.003013540400541362</v>
+        <v>0.002259210576895315</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1341,37 +1341,37 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Specialty Retail</t>
+          <t>Consumer Staples Distribution &amp; Retail</t>
         </is>
       </c>
       <c r="K23" t="n">
-        <v>99</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-0.03048596522627007</v>
+        <v>0.04214666096802439</v>
       </c>
       <c r="B24" t="n">
-        <v>0.02864689525828564</v>
+        <v>-0.05156552069718403</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.1297379766885995</v>
+        <v>-0.06737893909375042</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6479054062743212</v>
+        <v>0.7065213530214118</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.0002921503396437446</v>
+        <v>5.692095603751146e-05</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0007981698060389629</v>
+        <v>0.0001425048411563585</v>
       </c>
       <c r="G24" t="n">
-        <v>0.001312228475683656</v>
+        <v>0.001747611834831182</v>
       </c>
       <c r="H24" t="n">
-        <v>0.002778774405965215</v>
+        <v>0.002823326296787597</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1384,33 +1384,33 @@
         </is>
       </c>
       <c r="K24" t="n">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-5.684146765603002e-05</v>
+        <v>0.1099677238113567</v>
       </c>
       <c r="B25" t="n">
-        <v>0.04393180381185802</v>
+        <v>0.1063197318285392</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0018994514219058</v>
+        <v>0.149342984110842</v>
       </c>
       <c r="D25" t="n">
-        <v>0.180694821774881</v>
+        <v>0.1332947795147723</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0002276428400463935</v>
+        <v>0.0005778734646793179</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0004270796095127758</v>
+        <v>0.001219388909424083</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0005222704341629121</v>
+        <v>0.001464771749965886</v>
       </c>
       <c r="H25" t="n">
-        <v>0.004408231831521539</v>
+        <v>0.002707801087681432</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1423,33 +1423,33 @@
         </is>
       </c>
       <c r="K25" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.005811402882114327</v>
+        <v>0.02175464282605704</v>
       </c>
       <c r="B26" t="n">
-        <v>0.05876231758512978</v>
+        <v>-0.009718359089450583</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.03440501677451492</v>
+        <v>-0.02084144704674484</v>
       </c>
       <c r="D26" t="n">
-        <v>0.01272295564079188</v>
+        <v>-0.02050926217832276</v>
       </c>
       <c r="E26" t="n">
-        <v>7.949355699162919e-05</v>
+        <v>-0.0003875726297256661</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0008973124024263935</v>
+        <v>-0.0002321840928302591</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0008558400379321487</v>
+        <v>-4.051698343736501e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0008415829784493745</v>
+        <v>0.0007754931742953426</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1467,28 +1467,28 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.03346174441146117</v>
+        <v>-0.02074416613293677</v>
       </c>
       <c r="B27" t="n">
-        <v>0.2460602993581581</v>
+        <v>-0.0480775796343233</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.04701278019291553</v>
+        <v>0.00675604872693382</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1657538852303413</v>
+        <v>0.2206940453386734</v>
       </c>
       <c r="E27" t="n">
-        <v>5.986618408123836e-05</v>
+        <v>-0.0007354493003326359</v>
       </c>
       <c r="F27" t="n">
-        <v>0.001129539645289854</v>
+        <v>-0.0009738556607702058</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0003548770565871533</v>
+        <v>-0.0002413320953186</v>
       </c>
       <c r="H27" t="n">
-        <v>0.001682197821454554</v>
+        <v>0.002647835752023354</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1506,28 +1506,28 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.04322952939274038</v>
+        <v>0.03220678609686176</v>
       </c>
       <c r="B28" t="n">
-        <v>0.08408998431336573</v>
+        <v>0.02955173516842079</v>
       </c>
       <c r="C28" t="n">
-        <v>0.04418085470181467</v>
+        <v>0.03041410994529399</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2161387118010577</v>
+        <v>0.2758682176370548</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0002875673885321223</v>
+        <v>-0.0001204053876357876</v>
       </c>
       <c r="F28" t="n">
-        <v>0.001145004946451494</v>
+        <v>0.0002292267803801042</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0006387734175613359</v>
+        <v>0.0007136046827747394</v>
       </c>
       <c r="H28" t="n">
-        <v>0.002029305831486871</v>
+        <v>0.001499595870531192</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -1545,28 +1545,28 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.00564869581803252</v>
+        <v>0.02604667229705413</v>
       </c>
       <c r="B29" t="n">
-        <v>0.04002573595461201</v>
+        <v>0.0193419298334011</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0445090304443104</v>
+        <v>0.1958941866231491</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1748327964017586</v>
+        <v>0.1900047868596393</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0003315665062151053</v>
+        <v>-0.0002146095053719952</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001495770563213236</v>
+        <v>0.0004561580080468909</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0004367378688845592</v>
+        <v>0.001506828153966954</v>
       </c>
       <c r="H29" t="n">
-        <v>0.002367796159888529</v>
+        <v>0.001000499764014455</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -1579,33 +1579,33 @@
         </is>
       </c>
       <c r="K29" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.02569702150047291</v>
+        <v>0.03938675300121047</v>
       </c>
       <c r="B30" t="n">
-        <v>0.06398529647628988</v>
+        <v>0.03075567261730635</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.02554119925746326</v>
+        <v>0.09283983330828458</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1743452340587824</v>
+        <v>0.1532580199979238</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0006572829387697002</v>
+        <v>0.0003734486130181113</v>
       </c>
       <c r="F30" t="n">
-        <v>0.001003283210780173</v>
+        <v>0.001462394333934903</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0006427110993910631</v>
+        <v>0.001605705212894983</v>
       </c>
       <c r="H30" t="n">
-        <v>0.00259916627483094</v>
+        <v>0.001937703261522398</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -1618,33 +1618,33 @@
         </is>
       </c>
       <c r="K30" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-0.02768182713935561</v>
+        <v>0.02751192850206282</v>
       </c>
       <c r="B31" t="n">
-        <v>0.05575019243949951</v>
+        <v>-0.002607470676543115</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.009443025273230403</v>
+        <v>0.03375078274387885</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1397300376459866</v>
+        <v>0.2243721341378369</v>
       </c>
       <c r="E31" t="n">
-        <v>2.321292909804172e-05</v>
+        <v>0.0001114328998920724</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0007799851733970266</v>
+        <v>0.0007728952702077619</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0005388155365343712</v>
+        <v>0.0009381103665158127</v>
       </c>
       <c r="H31" t="n">
-        <v>0.002271111074185681</v>
+        <v>0.002247381480781408</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -1657,33 +1657,33 @@
         </is>
       </c>
       <c r="K31" t="n">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.003603480716474961</v>
+        <v>-0.001911272056461232</v>
       </c>
       <c r="B32" t="n">
-        <v>0.2585675631768096</v>
+        <v>0.04550315932682137</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3126051956450891</v>
+        <v>0.08633165846189252</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1112649268160413</v>
+        <v>0.2621790180884238</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.000172030633353136</v>
+        <v>-0.0004227701385445996</v>
       </c>
       <c r="F32" t="n">
-        <v>0.002042754412383417</v>
+        <v>0.0001343866762880363</v>
       </c>
       <c r="G32" t="n">
-        <v>0.003278817155640025</v>
+        <v>0.0009859589637729728</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0004068845332773788</v>
+        <v>0.00316342333051009</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -1692,37 +1692,37 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Tobacco</t>
+          <t>Aerospace &amp; Defense</t>
         </is>
       </c>
       <c r="K32" t="n">
-        <v>5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.05627587214773377</v>
+        <v>0.003815482664817961</v>
       </c>
       <c r="B33" t="n">
-        <v>0.290117349000888</v>
+        <v>0.1198070259186978</v>
       </c>
       <c r="C33" t="n">
-        <v>0.3162738141369004</v>
+        <v>0.4338965186333343</v>
       </c>
       <c r="D33" t="n">
-        <v>0.06494094543332977</v>
+        <v>0.05853148572067751</v>
       </c>
       <c r="E33" t="n">
-        <v>0.000479124710460331</v>
+        <v>0.0002276347656399977</v>
       </c>
       <c r="F33" t="n">
-        <v>0.001398946756577802</v>
+        <v>0.001290975770273621</v>
       </c>
       <c r="G33" t="n">
-        <v>0.001811108332915367</v>
+        <v>0.002720404824184147</v>
       </c>
       <c r="H33" t="n">
-        <v>0.001743849866188016</v>
+        <v>0.0007964024917849679</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -1740,28 +1740,28 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.03226431062012659</v>
+        <v>0.01243614877007269</v>
       </c>
       <c r="B34" t="n">
-        <v>0.1431606000482526</v>
+        <v>-0.00826762700437259</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1026427020133354</v>
+        <v>0.02573242181669321</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3830175866322084</v>
+        <v>0.2279409395878697</v>
       </c>
       <c r="E34" t="n">
-        <v>8.029637173947485e-05</v>
+        <v>-5.192652332349473e-05</v>
       </c>
       <c r="F34" t="n">
-        <v>0.001411797295995067</v>
+        <v>0.0005339217721984176</v>
       </c>
       <c r="G34" t="n">
-        <v>0.001814679758666301</v>
+        <v>0.0008153582935551329</v>
       </c>
       <c r="H34" t="n">
-        <v>0.003234141630409166</v>
+        <v>0.002633174417636167</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -1770,37 +1770,37 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defense</t>
+          <t>Machinery</t>
         </is>
       </c>
       <c r="K34" t="n">
-        <v>44</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.03713601398899662</v>
+        <v>0.07612177567437292</v>
       </c>
       <c r="B35" t="n">
-        <v>0.07149693619433378</v>
+        <v>0.1838520591569884</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.03787574063414656</v>
+        <v>0.2988928195927932</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2216629580140055</v>
+        <v>0.2266560473265075</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0005379975661859524</v>
+        <v>0.001122310271888547</v>
       </c>
       <c r="F35" t="n">
-        <v>0.001254082272796234</v>
+        <v>0.001431315201917259</v>
       </c>
       <c r="G35" t="n">
-        <v>0.000394765215756956</v>
+        <v>0.003290371864475933</v>
       </c>
       <c r="H35" t="n">
-        <v>0.003014337855341239</v>
+        <v>0.0007236763685975674</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -1809,37 +1809,37 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Machinery</t>
+          <t>Tobacco</t>
         </is>
       </c>
       <c r="K35" t="n">
-        <v>107</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.05307613766104332</v>
+        <v>0.05525468783514172</v>
       </c>
       <c r="B36" t="n">
-        <v>0.1559274069925616</v>
+        <v>0.1053916987347476</v>
       </c>
       <c r="C36" t="n">
-        <v>0.1675976063214843</v>
+        <v>0.1463967878087264</v>
       </c>
       <c r="D36" t="n">
-        <v>0.130978570816985</v>
+        <v>0.09695497877080518</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0006164496921195344</v>
+        <v>-0.0001187502674887317</v>
       </c>
       <c r="F36" t="n">
-        <v>0.001921334581340916</v>
+        <v>0.001046177123070927</v>
       </c>
       <c r="G36" t="n">
-        <v>0.002557644944072746</v>
+        <v>0.001773721513611514</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0016751001755163</v>
+        <v>0.00157721935671478</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -1857,28 +1857,28 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.03274509643409391</v>
+        <v>-0.009379047172361037</v>
       </c>
       <c r="B37" t="n">
-        <v>0.09508657875942089</v>
+        <v>0.07073631211303842</v>
       </c>
       <c r="C37" t="n">
-        <v>0.09315143899689897</v>
+        <v>0.938521722517427</v>
       </c>
       <c r="D37" t="n">
-        <v>0.2000168703997767</v>
+        <v>0.02309974666385599</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0002344997309717205</v>
+        <v>-5.795541981280352e-05</v>
       </c>
       <c r="F37" t="n">
-        <v>0.00132034563976649</v>
+        <v>0.001338087526820961</v>
       </c>
       <c r="G37" t="n">
-        <v>0.001374016852452221</v>
+        <v>0.003839900063997639</v>
       </c>
       <c r="H37" t="n">
-        <v>0.003206216553530433</v>
+        <v>0.0009482820287868869</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -1887,37 +1887,37 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Capital Markets</t>
+          <t>Diversified Telecommunication Services</t>
         </is>
       </c>
       <c r="K37" t="n">
-        <v>83</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.09866654935640157</v>
+        <v>0.05249440144283105</v>
       </c>
       <c r="B38" t="n">
-        <v>0.5913634593737408</v>
+        <v>0.05773160764643129</v>
       </c>
       <c r="C38" t="n">
-        <v>0.8348399430537186</v>
+        <v>0.1774506709151222</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1418951644822819</v>
+        <v>0.1927367229751981</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0009315856789594181</v>
+        <v>0.0004921370586786237</v>
       </c>
       <c r="F38" t="n">
-        <v>0.002401741392045966</v>
+        <v>0.0009264918916696203</v>
       </c>
       <c r="G38" t="n">
-        <v>0.00329184294136001</v>
+        <v>0.002151750826210521</v>
       </c>
       <c r="H38" t="n">
-        <v>0.00271556938849933</v>
+        <v>0.00279109646558451</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -1926,37 +1926,37 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Diversified Telecommunication Services</t>
+          <t>Capital Markets</t>
         </is>
       </c>
       <c r="K38" t="n">
-        <v>15</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.01242174442803693</v>
+        <v>0.05561338487111158</v>
       </c>
       <c r="B39" t="n">
-        <v>0.04397533999192511</v>
+        <v>-0.03819881290224894</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.01439259474105541</v>
+        <v>0.02484456279734982</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1916997402400072</v>
+        <v>0.09198360121177344</v>
       </c>
       <c r="E39" t="n">
-        <v>1.194204545503267e-05</v>
+        <v>0.0005023592947163384</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0007079606492885634</v>
+        <v>0.0006359786098305243</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.0002951736194710748</v>
+        <v>0.001718503293307661</v>
       </c>
       <c r="H39" t="n">
-        <v>0.003486931298307209</v>
+        <v>-0.0002901597316665845</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -1965,37 +1965,37 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Ground Transportation</t>
+          <t>Media</t>
         </is>
       </c>
       <c r="K39" t="n">
-        <v>26</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.02041418067393086</v>
+        <v>-0.003606217287484926</v>
       </c>
       <c r="B40" t="n">
-        <v>0.02681099054481096</v>
+        <v>-0.06532667215768899</v>
       </c>
       <c r="C40" t="n">
-        <v>0.01448968743386943</v>
+        <v>0.03299632673105232</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1341909217480503</v>
+        <v>0.1693499946943311</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0003261673458223459</v>
+        <v>-2.773720401992878e-07</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0009706172553852132</v>
+        <v>9.479694865727985e-05</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0007368082482020409</v>
+        <v>0.000264181596861933</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0001751005671224468</v>
+        <v>0.002312774426392304</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -2004,37 +2004,37 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Ground Transportation</t>
         </is>
       </c>
       <c r="K40" t="n">
-        <v>60</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-0.005633236329508714</v>
+        <v>0.04738650659736668</v>
       </c>
       <c r="B41" t="n">
-        <v>0.1338575939850668</v>
+        <v>0.05586398349885763</v>
       </c>
       <c r="C41" t="n">
-        <v>0.08208383513804825</v>
+        <v>0.1718635639028264</v>
       </c>
       <c r="D41" t="n">
-        <v>0.3427739310092234</v>
+        <v>0.237181149323867</v>
       </c>
       <c r="E41" t="n">
-        <v>3.050152006019944e-05</v>
+        <v>-4.477920680934471e-05</v>
       </c>
       <c r="F41" t="n">
-        <v>0.00143596493259582</v>
+        <v>0.0005539330160320433</v>
       </c>
       <c r="G41" t="n">
-        <v>0.001156915377636541</v>
+        <v>0.001534567147613537</v>
       </c>
       <c r="H41" t="n">
-        <v>0.002655529579720537</v>
+        <v>0.001558790393234447</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -2052,28 +2052,28 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.01449535158506887</v>
+        <v>0.0719244183878333</v>
       </c>
       <c r="B42" t="n">
-        <v>0.1642313326782828</v>
+        <v>0.01039020585108741</v>
       </c>
       <c r="C42" t="n">
-        <v>0.2949039044758365</v>
+        <v>0.1336956844783349</v>
       </c>
       <c r="D42" t="n">
-        <v>0.1468147115988045</v>
+        <v>0.3523334464866566</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0001148426946370124</v>
+        <v>0.0006966820448228508</v>
       </c>
       <c r="F42" t="n">
-        <v>0.001100935766217424</v>
+        <v>0.0007049930066013091</v>
       </c>
       <c r="G42" t="n">
-        <v>0.002158713979966192</v>
+        <v>0.001806164116093598</v>
       </c>
       <c r="H42" t="n">
-        <v>0.001401083254280283</v>
+        <v>0.004550837977185488</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -2082,37 +2082,37 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Industrial Conglomerates</t>
+          <t>Consumer Finance</t>
         </is>
       </c>
       <c r="K42" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-0.03216195705705741</v>
+        <v>-0.01523994756909952</v>
       </c>
       <c r="B43" t="n">
-        <v>0.09509255884777672</v>
+        <v>0.009948191228409842</v>
       </c>
       <c r="C43" t="n">
-        <v>0.1059344584646805</v>
+        <v>0.1964044888191501</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2942103315743699</v>
+        <v>0.1750330414454053</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0001270295005969768</v>
+        <v>-7.101601909785807e-05</v>
       </c>
       <c r="F43" t="n">
-        <v>0.001235994801132755</v>
+        <v>8.351246697136267e-05</v>
       </c>
       <c r="G43" t="n">
-        <v>0.001184370107305823</v>
+        <v>0.001550683562055656</v>
       </c>
       <c r="H43" t="n">
-        <v>0.004842484231867401</v>
+        <v>0.001397832871387569</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -2121,37 +2121,37 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Consumer Finance</t>
+          <t>Industrial Conglomerates</t>
         </is>
       </c>
       <c r="K43" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.07671766475778269</v>
+        <v>0.03950955023703381</v>
       </c>
       <c r="B44" t="n">
-        <v>0.01452688281156136</v>
+        <v>-0.005631253383611025</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0237167727673185</v>
+        <v>0.07262209364354338</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.06571936711947723</v>
+        <v>0.07705629735544992</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0007566695577472343</v>
+        <v>0.0004787543269567373</v>
       </c>
       <c r="F44" t="n">
-        <v>0.00102788703765797</v>
+        <v>0.001518000561596413</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0002187583348131161</v>
+        <v>0.001717160911287654</v>
       </c>
       <c r="H44" t="n">
-        <v>0.00312377934369078</v>
+        <v>0.003502706159353922</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -2164,33 +2164,33 @@
         </is>
       </c>
       <c r="K44" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-0.013796008907803</v>
+        <v>-0.05426447565643811</v>
       </c>
       <c r="B45" t="n">
-        <v>0.1575731360172631</v>
+        <v>-0.09721003428268797</v>
       </c>
       <c r="C45" t="n">
-        <v>0.09704571311651473</v>
+        <v>0.07452219652192184</v>
       </c>
       <c r="D45" t="n">
-        <v>0.1488010006002105</v>
+        <v>0.08700744826540743</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.0001063573020078322</v>
+        <v>-0.0005203824174294566</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001350660408751246</v>
+        <v>-0.0008537914683647025</v>
       </c>
       <c r="G45" t="n">
-        <v>0.000197532538878582</v>
+        <v>0.0008742991950082281</v>
       </c>
       <c r="H45" t="n">
-        <v>0.001428088709513548</v>
+        <v>0.000111626161992213</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -2208,28 +2208,28 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-0.02235831803386729</v>
+        <v>0.01582121453767875</v>
       </c>
       <c r="B46" t="n">
-        <v>0.06128293145328359</v>
+        <v>-0.02541348327145779</v>
       </c>
       <c r="C46" t="n">
-        <v>0.01647193182340324</v>
+        <v>0.08444646110399964</v>
       </c>
       <c r="D46" t="n">
-        <v>0.1013063607239382</v>
+        <v>0.108035190728842</v>
       </c>
       <c r="E46" t="n">
-        <v>-2.571295947406279e-05</v>
+        <v>0.0001758578540102777</v>
       </c>
       <c r="F46" t="n">
-        <v>0.00128219140455622</v>
+        <v>0.0008087180635573432</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0009460060691297716</v>
+        <v>0.001671299329874183</v>
       </c>
       <c r="H46" t="n">
-        <v>0.001447018907595695</v>
+        <v>0.001494948485757144</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -2242,33 +2242,33 @@
         </is>
       </c>
       <c r="K46" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.01314101918152587</v>
+        <v>-0.01755894455638631</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.02412723675888154</v>
+        <v>0.06203379270979784</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0371091178405497</v>
+        <v>0.1758960458850467</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.01190225623266545</v>
+        <v>0.06692616780179862</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0003493188690026001</v>
+        <v>-6.231955695877727e-05</v>
       </c>
       <c r="F47" t="n">
-        <v>0.001649009439941749</v>
+        <v>0.0007799728095034346</v>
       </c>
       <c r="G47" t="n">
-        <v>0.002702828758231719</v>
+        <v>0.002270237716397913</v>
       </c>
       <c r="H47" t="n">
-        <v>0.001650653250278079</v>
+        <v>0.0005405885094644375</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -2277,37 +2277,37 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Wireless Telecommunication Services</t>
+          <t>Specialized REITs</t>
         </is>
       </c>
       <c r="K47" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.05482765630460249</v>
+        <v>-0.03577618656754555</v>
       </c>
       <c r="B48" t="n">
-        <v>0.2178357209675215</v>
+        <v>-0.02295695251446962</v>
       </c>
       <c r="C48" t="n">
-        <v>0.154963823125289</v>
+        <v>0.009804583578074896</v>
       </c>
       <c r="D48" t="n">
-        <v>0.1881092230412425</v>
+        <v>0.1682682323133758</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0004516283309998189</v>
+        <v>-0.0002555932816078642</v>
       </c>
       <c r="F48" t="n">
-        <v>0.001967512152576192</v>
+        <v>0.0004194520480230525</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0017673725292653</v>
+        <v>-0.0004878659759018769</v>
       </c>
       <c r="H48" t="n">
-        <v>0.001898267919325825</v>
+        <v>0.0005966324169240585</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -2316,37 +2316,37 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Specialized REITs</t>
+          <t>Textiles, Apparel &amp; Luxury Goods</t>
         </is>
       </c>
       <c r="K48" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.06373648789993912</v>
+        <v>0.06075562751178078</v>
       </c>
       <c r="B49" t="n">
-        <v>0.08656080774467526</v>
+        <v>0.03588724646359315</v>
       </c>
       <c r="C49" t="n">
-        <v>0.01027027165790497</v>
+        <v>0.1497464052648583</v>
       </c>
       <c r="D49" t="n">
-        <v>0.2316255619261327</v>
+        <v>-0.07364136154176683</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0006986563216739201</v>
+        <v>0.0003517431000124296</v>
       </c>
       <c r="F49" t="n">
-        <v>0.001203214985082165</v>
+        <v>-3.670735366657339e-06</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.0002826617615940351</v>
+        <v>9.352736216666088e-05</v>
       </c>
       <c r="H49" t="n">
-        <v>0.002089676755974782</v>
+        <v>0.0003044679487797286</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -2355,37 +2355,37 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Textiles, Apparel &amp; Luxury Goods</t>
+          <t>Air Freight &amp; Logistics</t>
         </is>
       </c>
       <c r="K49" t="n">
-        <v>37</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.01040864446365067</v>
+        <v>-0.01783238199706122</v>
       </c>
       <c r="B50" t="n">
-        <v>0.05868570221686097</v>
+        <v>-0.01957477476929077</v>
       </c>
       <c r="C50" t="n">
-        <v>0.05682749025769676</v>
+        <v>-0.02541503629351518</v>
       </c>
       <c r="D50" t="n">
-        <v>0.07628819093508696</v>
+        <v>0.1718809402797659</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0001658055079087092</v>
+        <v>-0.0002394621121121906</v>
       </c>
       <c r="F50" t="n">
-        <v>0.001165005937475796</v>
+        <v>0.0001147617392388044</v>
       </c>
       <c r="G50" t="n">
-        <v>0.000590314634541087</v>
+        <v>-4.932094155952075e-06</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0005955924397322891</v>
+        <v>0.0008191509291140831</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -2403,28 +2403,28 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-0.01527730982137349</v>
+        <v>0.07280256734270529</v>
       </c>
       <c r="B51" t="n">
-        <v>0.1172649318113041</v>
+        <v>-0.03408386290959288</v>
       </c>
       <c r="C51" t="n">
-        <v>0.06130903626893477</v>
+        <v>0.1465366653405662</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.08720853090310994</v>
+        <v>-0.0002113030091440228</v>
       </c>
       <c r="E51" t="n">
-        <v>1.740550411837271e-05</v>
+        <v>0.0008229136452728084</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.0001199401608088247</v>
+        <v>0.002300839062266073</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.0002309743125424833</v>
+        <v>0.00377675072420679</v>
       </c>
       <c r="H51" t="n">
-        <v>0.0001792407470531981</v>
+        <v>0.001113057011034529</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -2433,37 +2433,37 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Air Freight &amp; Logistics</t>
+          <t>Wireless Telecommunication Services</t>
         </is>
       </c>
       <c r="K51" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-0.04301307505342678</v>
+        <v>-0.02551168541211427</v>
       </c>
       <c r="B52" t="n">
-        <v>0.02685473152134122</v>
+        <v>-0.02409594220107873</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0168484303684466</v>
+        <v>0.0311693911570618</v>
       </c>
       <c r="D52" t="n">
-        <v>0.2012214330011505</v>
+        <v>0.3738030511196742</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.0002376073092137024</v>
+        <v>-0.0003845681342009875</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0004525364813897986</v>
+        <v>0.0003784054409089178</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0006504342407112874</v>
+        <v>0.001219042264871629</v>
       </c>
       <c r="H52" t="n">
-        <v>0.003172026662564895</v>
+        <v>0.00369749038186056</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -2472,37 +2472,37 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Commercial Services &amp; Supplies</t>
+          <t>Building Products</t>
         </is>
       </c>
       <c r="K52" t="n">
-        <v>61</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.04970169715535792</v>
+        <v>0.03324162776256047</v>
       </c>
       <c r="B53" t="n">
-        <v>0.1356425552831927</v>
+        <v>-0.02093135340262342</v>
       </c>
       <c r="C53" t="n">
-        <v>0.01778794255371582</v>
+        <v>0.05105557803168887</v>
       </c>
       <c r="D53" t="n">
-        <v>0.4100882513558166</v>
+        <v>0.1830592561927686</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0006913905995515083</v>
+        <v>3.516226812485331e-06</v>
       </c>
       <c r="F53" t="n">
-        <v>0.001872601736407275</v>
+        <v>0.0002529972400006259</v>
       </c>
       <c r="G53" t="n">
-        <v>0.00167824088689511</v>
+        <v>0.0008923450363210375</v>
       </c>
       <c r="H53" t="n">
-        <v>0.003707759974244463</v>
+        <v>0.002520426135538066</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -2511,37 +2511,37 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Building Products</t>
+          <t>Commercial Services &amp; Supplies</t>
         </is>
       </c>
       <c r="K53" t="n">
-        <v>34</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.01127801180953261</v>
+        <v>0.008428192360439251</v>
       </c>
       <c r="B54" t="n">
-        <v>0.05649256534141555</v>
+        <v>-0.0188236606750182</v>
       </c>
       <c r="C54" t="n">
-        <v>0.03177003588472532</v>
+        <v>0.04317900958447541</v>
       </c>
       <c r="D54" t="n">
-        <v>0.1389229201395477</v>
+        <v>0.1792897217645747</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0001417263507340751</v>
+        <v>0.0001776134026702661</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0006110248817261894</v>
+        <v>0.0003179391109079115</v>
       </c>
       <c r="G54" t="n">
-        <v>0.001014770422461666</v>
+        <v>0.001115651763146987</v>
       </c>
       <c r="H54" t="n">
-        <v>0.002267466956096803</v>
+        <v>0.002708010528733196</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
@@ -2559,28 +2559,28 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.07331865801426213</v>
+        <v>0.0150340460258476</v>
       </c>
       <c r="B55" t="n">
-        <v>0.2124309620747201</v>
+        <v>0.1129964710787907</v>
       </c>
       <c r="C55" t="n">
-        <v>0.3247436683791036</v>
+        <v>0.2552981345401572</v>
       </c>
       <c r="D55" t="n">
-        <v>0.09730955322971448</v>
+        <v>0.07706993280239968</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0004952035295848026</v>
+        <v>0.0005373521232554531</v>
       </c>
       <c r="F55" t="n">
-        <v>0.002042360531116335</v>
+        <v>0.001733151930516582</v>
       </c>
       <c r="G55" t="n">
-        <v>0.003219434861303404</v>
+        <v>0.003349918869258299</v>
       </c>
       <c r="H55" t="n">
-        <v>0.001302475175879816</v>
+        <v>0.0009387629447362936</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -2593,33 +2593,33 @@
         </is>
       </c>
       <c r="K55" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.04247405169924245</v>
+        <v>0.0004446515643018567</v>
       </c>
       <c r="B56" t="n">
-        <v>0.1137388567575371</v>
+        <v>-0.02825815917635112</v>
       </c>
       <c r="C56" t="n">
-        <v>0.06103766114420779</v>
+        <v>0.01334380253430881</v>
       </c>
       <c r="D56" t="n">
-        <v>0.1227648115440015</v>
+        <v>0.1933844418149833</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0005803022052225486</v>
+        <v>-0.0005462379734254107</v>
       </c>
       <c r="F56" t="n">
-        <v>0.001006148195045529</v>
+        <v>-0.0004143992436943715</v>
       </c>
       <c r="G56" t="n">
-        <v>0.001359027437867364</v>
+        <v>-6.995001864418139e-05</v>
       </c>
       <c r="H56" t="n">
-        <v>0.002005506714783857</v>
+        <v>0.002458872276323438</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
@@ -2632,33 +2632,33 @@
         </is>
       </c>
       <c r="K56" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-0.07103144533916082</v>
+        <v>-0.06529570071512303</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.05268102859053923</v>
+        <v>-0.1594576098208286</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.09760837656266586</v>
+        <v>-0.07817063639283006</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.01036068377719716</v>
+        <v>0.007490711559186347</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.0004440010824405386</v>
+        <v>-0.0007510613172518718</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.0008407763651886487</v>
+        <v>-0.001624026394788618</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.001292554539703054</v>
+        <v>-0.0009479336882889294</v>
       </c>
       <c r="H57" t="n">
-        <v>5.373958380428383e-05</v>
+        <v>-0.0005376795668074662</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -2676,28 +2676,28 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.02654988236897555</v>
+        <v>-0.036743926413656</v>
       </c>
       <c r="B58" t="n">
-        <v>0.1840028156153875</v>
+        <v>-0.01923869369556542</v>
       </c>
       <c r="C58" t="n">
-        <v>0.03816277471401981</v>
+        <v>0.04194908919258922</v>
       </c>
       <c r="D58" t="n">
-        <v>0.4292006560973713</v>
+        <v>0.389308688696153</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0003561900898944128</v>
+        <v>-0.000562944966534506</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002559846047987847</v>
+        <v>-0.000245109515538057</v>
       </c>
       <c r="G58" t="n">
-        <v>0.001281910140131959</v>
+        <v>0.001125441042931189</v>
       </c>
       <c r="H58" t="n">
-        <v>0.005030808193066089</v>
+        <v>0.003865078426882123</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -2710,33 +2710,33 @@
         </is>
       </c>
       <c r="K58" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.01795218792362901</v>
+        <v>0.0132299247686117</v>
       </c>
       <c r="B59" t="n">
-        <v>0.1647120447307176</v>
+        <v>0.02677910858056762</v>
       </c>
       <c r="C59" t="n">
-        <v>0.1660410417834417</v>
+        <v>0.1573936582162667</v>
       </c>
       <c r="D59" t="n">
-        <v>0.1854581893562751</v>
+        <v>0.07685117449827032</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0001461885589360954</v>
+        <v>-4.942915513679547e-06</v>
       </c>
       <c r="F59" t="n">
-        <v>0.001757612587108988</v>
+        <v>0.0006591219387984389</v>
       </c>
       <c r="G59" t="n">
-        <v>0.001712864355781667</v>
+        <v>0.001643163693584972</v>
       </c>
       <c r="H59" t="n">
-        <v>0.002294155531896693</v>
+        <v>0.001121804950147988</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -2754,28 +2754,28 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.04204080815801393</v>
+        <v>0.04048743131377258</v>
       </c>
       <c r="B60" t="n">
-        <v>0.161155673675592</v>
+        <v>0.001050375220367313</v>
       </c>
       <c r="C60" t="n">
-        <v>0.1813783931237632</v>
+        <v>0.1274681095078876</v>
       </c>
       <c r="D60" t="n">
-        <v>0.114743468489239</v>
+        <v>0.231367953049589</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0004495089376388318</v>
+        <v>0.0005561459591511597</v>
       </c>
       <c r="F60" t="n">
-        <v>0.001677845460430767</v>
+        <v>0.0004282942247438295</v>
       </c>
       <c r="G60" t="n">
-        <v>0.001997821950012224</v>
+        <v>0.001268156830739268</v>
       </c>
       <c r="H60" t="n">
-        <v>0.001071256631286298</v>
+        <v>0.003585427070849855</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -2784,37 +2784,37 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Multi-Utilities</t>
+          <t>Trading Companies &amp; Distributors</t>
         </is>
       </c>
       <c r="K60" t="n">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.03584605780951931</v>
+        <v>-0.003605111350410996</v>
       </c>
       <c r="B61" t="n">
-        <v>0.111432494475239</v>
+        <v>0.06229286585621945</v>
       </c>
       <c r="C61" t="n">
-        <v>0.06103701641662867</v>
+        <v>0.1307063576601879</v>
       </c>
       <c r="D61" t="n">
-        <v>0.2850607799170936</v>
+        <v>0.08596742163851601</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0003988301073577268</v>
+        <v>1.937396146550262e-05</v>
       </c>
       <c r="F61" t="n">
-        <v>0.001390529263627228</v>
+        <v>0.0008866465955680269</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0004311223822485198</v>
+        <v>0.001579638242283141</v>
       </c>
       <c r="H61" t="n">
-        <v>0.004445709781399335</v>
+        <v>0.0008908706526556716</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -2823,37 +2823,37 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Trading Companies &amp; Distributors</t>
+          <t>Multi-Utilities</t>
         </is>
       </c>
       <c r="K61" t="n">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.01018356876820411</v>
+        <v>0.06346974323835855</v>
       </c>
       <c r="B62" t="n">
-        <v>0.03944214032394448</v>
+        <v>-0.07892051724289412</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.05508354111540564</v>
+        <v>-0.07574239325745014</v>
       </c>
       <c r="D62" t="n">
-        <v>0.08680484056513635</v>
+        <v>0.09808536537642439</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0003741531948068817</v>
+        <v>-0.000489516055228886</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0008714111665073231</v>
+        <v>0.0002255252907232861</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.000816242409450346</v>
+        <v>-0.0004858158265553004</v>
       </c>
       <c r="H62" t="n">
-        <v>0.001750900972639149</v>
+        <v>0.001143422832081544</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -2871,28 +2871,28 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.03940196097510352</v>
+        <v>0.06236588173179382</v>
       </c>
       <c r="B63" t="n">
-        <v>0.1227320409331032</v>
+        <v>0.07864499754895808</v>
       </c>
       <c r="C63" t="n">
-        <v>0.1614196024044157</v>
+        <v>0.194917480948468</v>
       </c>
       <c r="D63" t="n">
-        <v>0.2982386632751312</v>
+        <v>0.3842169351046694</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0005859486428459323</v>
+        <v>0.0003164227078860242</v>
       </c>
       <c r="F63" t="n">
-        <v>0.001483088378840866</v>
+        <v>0.001211352101087653</v>
       </c>
       <c r="G63" t="n">
-        <v>0.001643701388022224</v>
+        <v>0.002108886522519342</v>
       </c>
       <c r="H63" t="n">
-        <v>0.004047297440423062</v>
+        <v>0.004723260854829064</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -2910,28 +2910,28 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.05797021974686504</v>
+        <v>-0.03594883472516113</v>
       </c>
       <c r="B64" t="n">
-        <v>0.2015474219980645</v>
+        <v>0.03982418963002668</v>
       </c>
       <c r="C64" t="n">
-        <v>0.09936218574001938</v>
+        <v>0.1671956792301663</v>
       </c>
       <c r="D64" t="n">
-        <v>0.02734569814662276</v>
+        <v>0.159569945027477</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0005305975583835294</v>
+        <v>-0.0006465482002886187</v>
       </c>
       <c r="F64" t="n">
-        <v>0.002587493035201683</v>
+        <v>0.003632157078752837</v>
       </c>
       <c r="G64" t="n">
-        <v>0.001348482451726722</v>
+        <v>0.003921630187446179</v>
       </c>
       <c r="H64" t="n">
-        <v>0.002450931583359114</v>
+        <v>0.009146838509907589</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -2940,37 +2940,37 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Real Estate Management &amp; Development</t>
+          <t>Independent Power and Renewable Electricity Producers</t>
         </is>
       </c>
       <c r="K64" t="n">
-        <v>40</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.05078979056701453</v>
+        <v>-0.01390133651767193</v>
       </c>
       <c r="B65" t="n">
-        <v>0.1661475062150755</v>
+        <v>0.02882743456942431</v>
       </c>
       <c r="C65" t="n">
-        <v>0.01966010823983333</v>
+        <v>0.1580496923462222</v>
       </c>
       <c r="D65" t="n">
-        <v>0.6482038749521616</v>
+        <v>0.09290304612354666</v>
       </c>
       <c r="E65" t="n">
-        <v>0.000300349774319849</v>
+        <v>0.0001597332341654966</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0005598554249577867</v>
+        <v>0.0008612935072870684</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.0006772510901928977</v>
+        <v>0.002736512319240681</v>
       </c>
       <c r="H65" t="n">
-        <v>0.004630716438506605</v>
+        <v>0.002225965645673293</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -2979,37 +2979,37 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Construction Materials</t>
+          <t>Real Estate Management &amp; Development</t>
         </is>
       </c>
       <c r="K65" t="n">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-0.01078513794100198</v>
+        <v>0.1490844597909511</v>
       </c>
       <c r="B66" t="n">
-        <v>0.1164164390244858</v>
+        <v>0.1103987957682491</v>
       </c>
       <c r="C66" t="n">
-        <v>0.1838835060155602</v>
+        <v>0.1718812165598969</v>
       </c>
       <c r="D66" t="n">
-        <v>0.08680610138287574</v>
+        <v>0.4899560379721534</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.0001406808373949958</v>
+        <v>0.001369475931198041</v>
       </c>
       <c r="F66" t="n">
-        <v>0.000918820020296024</v>
+        <v>0.0003602738399199725</v>
       </c>
       <c r="G66" t="n">
-        <v>0.001785137126040006</v>
+        <v>0.0006501802737466173</v>
       </c>
       <c r="H66" t="n">
-        <v>0.0009829733388902924</v>
+        <v>0.003510481569147641</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
@@ -3018,37 +3018,37 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Residential REITs</t>
+          <t>Construction Materials</t>
         </is>
       </c>
       <c r="K66" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-0.03519342025913594</v>
+        <v>0.1056839918336854</v>
       </c>
       <c r="B67" t="n">
-        <v>0.1114327129198038</v>
+        <v>0.09361505037828172</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.09558628623097949</v>
+        <v>0.0281677162792222</v>
       </c>
       <c r="D67" t="n">
-        <v>0.01852381772987256</v>
+        <v>0.2514950926143059</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.0001504220401454374</v>
+        <v>0.001996257993595923</v>
       </c>
       <c r="F67" t="n">
-        <v>0.00169231852810281</v>
+        <v>0.003444588386257645</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.0005006825503228654</v>
+        <v>0.00200213735941576</v>
       </c>
       <c r="H67" t="n">
-        <v>0.001367267722013939</v>
+        <v>0.00404601348404175</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -3057,37 +3057,37 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Health Care Technology</t>
+          <t>Passenger Airlines</t>
         </is>
       </c>
       <c r="K67" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.09846992088465507</v>
+        <v>-0.009408606415685316</v>
       </c>
       <c r="B68" t="n">
-        <v>0.165386478438057</v>
+        <v>0.05215186968876714</v>
       </c>
       <c r="C68" t="n">
-        <v>0.2229608978379835</v>
+        <v>0.1246926850610739</v>
       </c>
       <c r="D68" t="n">
-        <v>0.01090662058528166</v>
+        <v>0.1458247726612218</v>
       </c>
       <c r="E68" t="n">
-        <v>0.00276678121487675</v>
+        <v>-0.0001057727918388522</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002991472500390088</v>
+        <v>0.000451120055331857</v>
       </c>
       <c r="G68" t="n">
-        <v>0.005005271725059159</v>
+        <v>0.001118325027730624</v>
       </c>
       <c r="H68" t="n">
-        <v>0.007047754830833575</v>
+        <v>0.00135402921460915</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
@@ -3096,37 +3096,37 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Independent Power and Renewable Electricity Producers</t>
+          <t>Residential REITs</t>
         </is>
       </c>
       <c r="K68" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-0.0066430140463992</v>
+        <v>-0.04010872259979457</v>
       </c>
       <c r="B69" t="n">
-        <v>0.08874397618162605</v>
+        <v>-0.03088877575848043</v>
       </c>
       <c r="C69" t="n">
-        <v>0.09861113970648594</v>
+        <v>-0.08168239141929615</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.01330312818314531</v>
+        <v>0.05738430400064155</v>
       </c>
       <c r="E69" t="n">
-        <v>8.253517991410672e-05</v>
+        <v>-4.516782412911979e-05</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001079734093050499</v>
+        <v>0.0007812640206283911</v>
       </c>
       <c r="G69" t="n">
-        <v>0.001555819304453744</v>
+        <v>0.0004491910837240012</v>
       </c>
       <c r="H69" t="n">
-        <v>7.538374841553856e-05</v>
+        <v>0.0009013781038871865</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -3135,37 +3135,37 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Water Utilities</t>
+          <t>Health Care Technology</t>
         </is>
       </c>
       <c r="K69" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.1307275999453306</v>
+        <v>-0.01129179331047311</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.004804845275865829</v>
+        <v>-0.06631265400140963</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.08638385440901777</v>
+        <v>0.06318749627787656</v>
       </c>
       <c r="D70" t="n">
-        <v>0.1825727283707163</v>
+        <v>-0.03650856373488578</v>
       </c>
       <c r="E70" t="n">
-        <v>0.001712531422433522</v>
+        <v>-0.0002310137126022601</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0008931308427014001</v>
+        <v>-0.0002788996039519531</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0005477263842720453</v>
+        <v>0.0007083983074571834</v>
       </c>
       <c r="H70" t="n">
-        <v>0.002160670075607277</v>
+        <v>0.0002437385639267171</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -3174,37 +3174,37 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Passenger Airlines</t>
+          <t>Water Utilities</t>
         </is>
       </c>
       <c r="K70" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.009071174422542202</v>
+        <v>0.02698204809870098</v>
       </c>
       <c r="B71" t="n">
-        <v>0.1175391530651879</v>
+        <v>0.001380359529551006</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.003944171640140695</v>
+        <v>0.02907624091105222</v>
       </c>
       <c r="D71" t="n">
-        <v>0.1979729266718247</v>
+        <v>0.2135038294791133</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0003178909763494459</v>
+        <v>0.0004208389140526096</v>
       </c>
       <c r="F71" t="n">
-        <v>0.001190393449863658</v>
+        <v>0.0006428687788256976</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0007677058541520335</v>
+        <v>0.001040674155917908</v>
       </c>
       <c r="H71" t="n">
-        <v>0.00154653948957612</v>
+        <v>0.001451321083900301</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
@@ -3222,28 +3222,28 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.02350480394746865</v>
+        <v>0.003235897632584373</v>
       </c>
       <c r="B72" t="n">
-        <v>0.04797383740676563</v>
+        <v>0.002859328091185676</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.1248741520743881</v>
+        <v>0.05363866842001634</v>
       </c>
       <c r="D72" t="n">
-        <v>0.07981375081984697</v>
+        <v>0.1130226405129684</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0001239989610803352</v>
+        <v>3.22168561978639e-05</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0007977787128442736</v>
+        <v>0.0003924094953980494</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.001009986165754248</v>
+        <v>0.0009827925227333986</v>
       </c>
       <c r="H72" t="n">
-        <v>0.001052587359255954</v>
+        <v>0.0008809633327053747</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
@@ -3252,37 +3252,37 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Distributors</t>
+          <t>Gas Utilities</t>
         </is>
       </c>
       <c r="K72" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.03835669567557378</v>
+        <v>-0.08399760204871853</v>
       </c>
       <c r="B73" t="n">
-        <v>0.1362041055387293</v>
+        <v>-0.08742165858260581</v>
       </c>
       <c r="C73" t="n">
-        <v>0.124315470405373</v>
+        <v>-0.09608697829184758</v>
       </c>
       <c r="D73" t="n">
-        <v>0.1043121005202335</v>
+        <v>0.1285413768136118</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0004279524246622235</v>
+        <v>-0.0009114277339613172</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001506702106325772</v>
+        <v>-0.001280575998337452</v>
       </c>
       <c r="G73" t="n">
-        <v>0.001343609725671864</v>
+        <v>-0.001545785186163644</v>
       </c>
       <c r="H73" t="n">
-        <v>0.001143211293020024</v>
+        <v>0.001411381936741529</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
@@ -3291,37 +3291,37 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Gas Utilities</t>
+          <t>Distributors</t>
         </is>
       </c>
       <c r="K73" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-0.005507507488741465</v>
+        <v>-0.06958723011660713</v>
       </c>
       <c r="B74" t="n">
-        <v>0.03488811811770337</v>
+        <v>-0.1567894814179822</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.06995700956924097</v>
+        <v>-0.1085756129283674</v>
       </c>
       <c r="D74" t="n">
-        <v>0.02829920940343656</v>
+        <v>0.08517986919966135</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0002305834958102958</v>
+        <v>-0.0007860289374864289</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0007239853735260637</v>
+        <v>-0.001192159618949155</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.0002979231752096311</v>
+        <v>-0.001137005308614641</v>
       </c>
       <c r="H74" t="n">
-        <v>0.0006995469520281443</v>
+        <v>0.001959008102213596</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
@@ -3339,28 +3339,28 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.02030934686589119</v>
+        <v>-0.007675580622477743</v>
       </c>
       <c r="B75" t="n">
-        <v>0.1665237578179851</v>
+        <v>-0.0007711487222127185</v>
       </c>
       <c r="C75" t="n">
-        <v>0.1430240295622622</v>
+        <v>0.1135957427608848</v>
       </c>
       <c r="D75" t="n">
-        <v>0.1263666057407325</v>
+        <v>0.05609217451692899</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0003401167426722618</v>
+        <v>-0.0004053368987083603</v>
       </c>
       <c r="F75" t="n">
-        <v>0.001833502827233862</v>
+        <v>4.722241332543281e-05</v>
       </c>
       <c r="G75" t="n">
-        <v>0.001978070234924339</v>
+        <v>0.0009979266962515938</v>
       </c>
       <c r="H75" t="n">
-        <v>0.001250737334910926</v>
+        <v>0.0005867087792553332</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
@@ -3378,28 +3378,28 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.006719780907812748</v>
+        <v>-0.03326711926968532</v>
       </c>
       <c r="B76" t="n">
-        <v>0.04140464834723586</v>
+        <v>-0.07253090294407566</v>
       </c>
       <c r="C76" t="n">
-        <v>-0.05800862027600561</v>
+        <v>-0.0988957239469259</v>
       </c>
       <c r="D76" t="n">
-        <v>0.123588418306092</v>
+        <v>0.01790000256359407</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0002588357211311056</v>
+        <v>-9.379152447788193e-05</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0004128184981501742</v>
+        <v>-3.568153658665385e-05</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.0007687624271979343</v>
+        <v>-0.0004612626491818211</v>
       </c>
       <c r="H76" t="n">
-        <v>0.002998991275953673</v>
+        <v>0.001177138833179175</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
@@ -3417,28 +3417,28 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-0.009500573783253682</v>
+        <v>0.000401464536334379</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.0274273901894632</v>
+        <v>-0.003705667462397673</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.06545133618527711</v>
+        <v>0.1255185084925145</v>
       </c>
       <c r="D77" t="n">
-        <v>0.1455464888215662</v>
+        <v>0.08849916129170228</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0003579167549880604</v>
+        <v>0.0004217756436854699</v>
       </c>
       <c r="F77" t="n">
-        <v>0.001572147925155301</v>
+        <v>0.001395379380723034</v>
       </c>
       <c r="G77" t="n">
-        <v>0.001815247186583408</v>
+        <v>0.003288042041545887</v>
       </c>
       <c r="H77" t="n">
-        <v>0.002582207239514813</v>
+        <v>0.001813331205131648</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
@@ -3447,37 +3447,37 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Diversified Consumer Services</t>
+          <t>Office REITs</t>
         </is>
       </c>
       <c r="K77" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-0.008198366661702854</v>
+        <v>0.05507491632249956</v>
       </c>
       <c r="B78" t="n">
-        <v>0.1712469966008391</v>
+        <v>-0.05526305610128204</v>
       </c>
       <c r="C78" t="n">
-        <v>0.1169536941852448</v>
+        <v>-0.06072694615087274</v>
       </c>
       <c r="D78" t="n">
-        <v>0.1092643782120823</v>
+        <v>0.1823713245660471</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0005433795611883791</v>
+        <v>0.0003584736344231412</v>
       </c>
       <c r="F78" t="n">
-        <v>0.002826970676209632</v>
+        <v>0.00134924299458524</v>
       </c>
       <c r="G78" t="n">
-        <v>0.00242761920533962</v>
+        <v>0.001801780918298696</v>
       </c>
       <c r="H78" t="n">
-        <v>0.001924560048538375</v>
+        <v>0.002471680887407965</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
@@ -3486,37 +3486,37 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Office REITs</t>
+          <t>Diversified Consumer Services</t>
         </is>
       </c>
       <c r="K78" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.01765841291198654</v>
+        <v>-0.0195244282639115</v>
       </c>
       <c r="B79" t="n">
-        <v>0.1108442751461446</v>
+        <v>-0.03963687415326341</v>
       </c>
       <c r="C79" t="n">
-        <v>0.08173947972024928</v>
+        <v>-0.002169694029152265</v>
       </c>
       <c r="D79" t="n">
-        <v>0.09427519862013951</v>
+        <v>0.07344539933876838</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0001304487880606116</v>
+        <v>-0.0002550098901775535</v>
       </c>
       <c r="F79" t="n">
-        <v>0.001161687054151184</v>
+        <v>-0.0003311931635532388</v>
       </c>
       <c r="G79" t="n">
-        <v>0.00100181977750812</v>
+        <v>0.0001439751996639535</v>
       </c>
       <c r="H79" t="n">
-        <v>0.001003260459945296</v>
+        <v>0.0008800997261432171</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
@@ -3534,28 +3534,28 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.02623083139100538</v>
+        <v>-0.0001814047732039947</v>
       </c>
       <c r="B80" t="n">
-        <v>0.06218213964203073</v>
+        <v>-0.04658648322713692</v>
       </c>
       <c r="C80" t="n">
-        <v>-0.006611898265627789</v>
+        <v>0.0390363611626444</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.04743299985320953</v>
+        <v>-0.03024911074147298</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0003090812236901348</v>
+        <v>1.21443996975684e-06</v>
       </c>
       <c r="F80" t="n">
-        <v>0.001427978307061342</v>
+        <v>0.0001800439083898298</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0003799755729362814</v>
+        <v>0.0008317517865985627</v>
       </c>
       <c r="H80" t="n">
-        <v>-0.0001822141777846959</v>
+        <v>0.0007755618578919592</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
@@ -3573,28 +3573,28 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.03699832493095545</v>
+        <v>0.0353192953995235</v>
       </c>
       <c r="B81" t="n">
-        <v>0.06661930053467258</v>
+        <v>0.04824887635473191</v>
       </c>
       <c r="C81" t="n">
-        <v>0.2922132040366494</v>
+        <v>0.1995724209878705</v>
       </c>
       <c r="D81" t="n">
-        <v>0.2131042604327108</v>
+        <v>0.3518309584598392</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0003878496228419172</v>
+        <v>0.0001903046172803512</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0006224966127729849</v>
+        <v>0.0002656166807749668</v>
       </c>
       <c r="G81" t="n">
-        <v>0.002971934948951294</v>
+        <v>0.001687491701274885</v>
       </c>
       <c r="H81" t="n">
-        <v>0.001994770064203623</v>
+        <v>0.003683022011468378</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
@@ -3612,28 +3612,28 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.03392681886140608</v>
+        <v>0.007828451287359622</v>
       </c>
       <c r="B82" t="n">
-        <v>0.1028047633915202</v>
+        <v>-0.04237071238661827</v>
       </c>
       <c r="C82" t="n">
-        <v>0.05266810768999622</v>
+        <v>0.07880511263568754</v>
       </c>
       <c r="D82" t="n">
-        <v>0.2924503591421441</v>
+        <v>0.2631608417024903</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0008352117612797722</v>
+        <v>-0.0003267713189705095</v>
       </c>
       <c r="F82" t="n">
-        <v>0.002485203558117751</v>
+        <v>0.0002949163994698285</v>
       </c>
       <c r="G82" t="n">
-        <v>0.002772683909099485</v>
+        <v>0.002907890974263309</v>
       </c>
       <c r="H82" t="n">
-        <v>0.004807831354746388</v>
+        <v>0.003338580905837708</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
@@ -3647,6 +3647,39 @@
       </c>
       <c r="K82" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>0.00527480911422451</v>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="n">
+        <v>5.27480911422451e-05</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>industry</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
